--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.834515518914818</v>
+        <v>2.294649666666667</v>
       </c>
       <c r="H2">
-        <v>0.834515518914818</v>
+        <v>6.883949</v>
       </c>
       <c r="I2">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="J2">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.863011893125502</v>
+        <v>0.9372593333333333</v>
       </c>
       <c r="N2">
-        <v>0.863011893125502</v>
+        <v>2.811778</v>
       </c>
       <c r="O2">
-        <v>0.01731799188350419</v>
+        <v>0.01825643784866941</v>
       </c>
       <c r="P2">
-        <v>0.01731799188350419</v>
+        <v>0.01825643784866941</v>
       </c>
       <c r="Q2">
-        <v>0.7201968178212877</v>
+        <v>2.150681816813556</v>
       </c>
       <c r="R2">
-        <v>0.7201968178212877</v>
+        <v>19.356136351322</v>
       </c>
       <c r="S2">
-        <v>4.596714320598003E-05</v>
+        <v>0.0001318906264110665</v>
       </c>
       <c r="T2">
-        <v>4.596714320598003E-05</v>
+        <v>0.0001318906264110665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.834515518914818</v>
+        <v>2.294649666666667</v>
       </c>
       <c r="H3">
-        <v>0.834515518914818</v>
+        <v>6.883949</v>
       </c>
       <c r="I3">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="J3">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.9671138830349</v>
+        <v>36.036964</v>
       </c>
       <c r="N3">
-        <v>35.9671138830349</v>
+        <v>108.110892</v>
       </c>
       <c r="O3">
-        <v>0.721749249646654</v>
+        <v>0.7019472307423313</v>
       </c>
       <c r="P3">
-        <v>0.721749249646654</v>
+        <v>0.7019472307423313</v>
       </c>
       <c r="Q3">
-        <v>30.01511470596922</v>
+        <v>82.69220743027869</v>
       </c>
       <c r="R3">
-        <v>30.01511470596922</v>
+        <v>744.2298668725081</v>
       </c>
       <c r="S3">
-        <v>0.001915738922878122</v>
+        <v>0.005071102081223751</v>
       </c>
       <c r="T3">
-        <v>0.001915738922878122</v>
+        <v>0.005071102081223751</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.834515518914818</v>
+        <v>2.294649666666667</v>
       </c>
       <c r="H4">
-        <v>0.834515518914818</v>
+        <v>6.883949</v>
       </c>
       <c r="I4">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="J4">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.251614250208193</v>
+        <v>0.3625906666666667</v>
       </c>
       <c r="N4">
-        <v>0.251614250208193</v>
+        <v>1.087772</v>
       </c>
       <c r="O4">
-        <v>0.005049123398634096</v>
+        <v>0.007062734651001189</v>
       </c>
       <c r="P4">
-        <v>0.005049123398634096</v>
+        <v>0.007062734651001189</v>
       </c>
       <c r="Q4">
-        <v>0.209975996578853</v>
+        <v>0.8320185524031112</v>
       </c>
       <c r="R4">
-        <v>0.209975996578853</v>
+        <v>7.488166971628</v>
       </c>
       <c r="S4">
-        <v>1.340188746425924E-05</v>
+        <v>5.102356248338902E-05</v>
       </c>
       <c r="T4">
-        <v>1.340188746425924E-05</v>
+        <v>5.102356248338902E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.834515518914818</v>
+        <v>2.294649666666667</v>
       </c>
       <c r="H5">
-        <v>0.834515518914818</v>
+        <v>6.883949</v>
       </c>
       <c r="I5">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="J5">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.900149138538661</v>
+        <v>0.9482816666666668</v>
       </c>
       <c r="N5">
-        <v>0.900149138538661</v>
+        <v>2.844845</v>
       </c>
       <c r="O5">
-        <v>0.01806322207067065</v>
+        <v>0.01847113674393851</v>
       </c>
       <c r="P5">
-        <v>0.01806322207067065</v>
+        <v>0.01847113674393851</v>
       </c>
       <c r="Q5">
-        <v>0.7511884254483171</v>
+        <v>2.175974210322778</v>
       </c>
       <c r="R5">
-        <v>0.7511884254483171</v>
+        <v>19.583767892905</v>
       </c>
       <c r="S5">
-        <v>4.794520757772335E-05</v>
+        <v>0.0001334416831956116</v>
       </c>
       <c r="T5">
-        <v>4.794520757772335E-05</v>
+        <v>0.0001334416831956116</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.834515518914818</v>
+        <v>2.294649666666667</v>
       </c>
       <c r="H6">
-        <v>0.834515518914818</v>
+        <v>6.883949</v>
       </c>
       <c r="I6">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="J6">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>11.8513651136989</v>
+        <v>0.007966666666666667</v>
       </c>
       <c r="N6">
-        <v>11.8513651136989</v>
+        <v>0.0239</v>
       </c>
       <c r="O6">
-        <v>0.2378204130005372</v>
+        <v>0.0001551789880222403</v>
       </c>
       <c r="P6">
-        <v>0.2378204130005372</v>
+        <v>0.0001551789880222403</v>
       </c>
       <c r="Q6">
-        <v>9.890148107707409</v>
+        <v>0.01828070901111111</v>
       </c>
       <c r="R6">
-        <v>9.890148107707409</v>
+        <v>0.1645263811</v>
       </c>
       <c r="S6">
-        <v>0.0006312466858304703</v>
+        <v>1.121065024061106E-06</v>
       </c>
       <c r="T6">
-        <v>0.0006312466858304703</v>
+        <v>1.121065024061106E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>287.305616547454</v>
+        <v>2.294649666666667</v>
       </c>
       <c r="H7">
-        <v>287.305616547454</v>
+        <v>6.883949</v>
       </c>
       <c r="I7">
-        <v>0.9138179419638887</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="J7">
-        <v>0.9138179419638887</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.863011893125502</v>
+        <v>13.04550333333333</v>
       </c>
       <c r="N7">
-        <v>0.863011893125502</v>
+        <v>39.13651</v>
       </c>
       <c r="O7">
-        <v>0.01731799188350419</v>
+        <v>0.2541072810260372</v>
       </c>
       <c r="P7">
-        <v>0.01731799188350419</v>
+        <v>0.2541072810260372</v>
       </c>
       <c r="Q7">
-        <v>247.9481640422078</v>
+        <v>29.93485987533223</v>
       </c>
       <c r="R7">
-        <v>247.9481640422078</v>
+        <v>269.41373887799</v>
       </c>
       <c r="S7">
-        <v>0.01582549170193113</v>
+        <v>0.001835756172586515</v>
       </c>
       <c r="T7">
-        <v>0.01582549170193113</v>
+        <v>0.001835756172586515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>287.305616547454</v>
+        <v>287.769348</v>
       </c>
       <c r="H8">
-        <v>287.305616547454</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I8">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="J8">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.9671138830349</v>
+        <v>0.9372593333333333</v>
       </c>
       <c r="N8">
-        <v>35.9671138830349</v>
+        <v>2.811778</v>
       </c>
       <c r="O8">
-        <v>0.721749249646654</v>
+        <v>0.01825643784866941</v>
       </c>
       <c r="P8">
-        <v>0.721749249646654</v>
+        <v>0.01825643784866941</v>
       </c>
       <c r="Q8">
-        <v>10333.55382959783</v>
+        <v>269.714507260248</v>
       </c>
       <c r="R8">
-        <v>10333.55382959783</v>
+        <v>2427.430565342232</v>
       </c>
       <c r="S8">
-        <v>0.6595474139260863</v>
+        <v>0.01654025018327018</v>
       </c>
       <c r="T8">
-        <v>0.6595474139260863</v>
+        <v>0.01654025018327018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>287.305616547454</v>
+        <v>287.769348</v>
       </c>
       <c r="H9">
-        <v>287.305616547454</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I9">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="J9">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.251614250208193</v>
+        <v>36.036964</v>
       </c>
       <c r="N9">
-        <v>0.251614250208193</v>
+        <v>108.110892</v>
       </c>
       <c r="O9">
-        <v>0.005049123398634096</v>
+        <v>0.7019472307423313</v>
       </c>
       <c r="P9">
-        <v>0.005049123398634096</v>
+        <v>0.7019472307423313</v>
       </c>
       <c r="Q9">
-        <v>72.29018728819025</v>
+        <v>10370.33363417947</v>
       </c>
       <c r="R9">
-        <v>72.29018728819025</v>
+        <v>93333.00270761526</v>
       </c>
       <c r="S9">
-        <v>0.004613979552861525</v>
+        <v>0.635961018692266</v>
       </c>
       <c r="T9">
-        <v>0.004613979552861525</v>
+        <v>0.635961018692266</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>287.305616547454</v>
+        <v>287.769348</v>
       </c>
       <c r="H10">
-        <v>287.305616547454</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I10">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="J10">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.900149138538661</v>
+        <v>0.3625906666666667</v>
       </c>
       <c r="N10">
-        <v>0.900149138538661</v>
+        <v>1.087772</v>
       </c>
       <c r="O10">
-        <v>0.01806322207067065</v>
+        <v>0.007062734651001189</v>
       </c>
       <c r="P10">
-        <v>0.01806322207067065</v>
+        <v>0.007062734651001189</v>
       </c>
       <c r="Q10">
-        <v>258.6179032325096</v>
+        <v>104.342479737552</v>
       </c>
       <c r="R10">
-        <v>258.6179032325096</v>
+        <v>939.0823176379681</v>
       </c>
       <c r="S10">
-        <v>0.01650649641785694</v>
+        <v>0.006398805674685614</v>
       </c>
       <c r="T10">
-        <v>0.01650649641785694</v>
+        <v>0.006398805674685614</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>287.305616547454</v>
+        <v>287.769348</v>
       </c>
       <c r="H11">
-        <v>287.305616547454</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I11">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="J11">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.8513651136989</v>
+        <v>0.9482816666666668</v>
       </c>
       <c r="N11">
-        <v>11.8513651136989</v>
+        <v>2.844845</v>
       </c>
       <c r="O11">
-        <v>0.2378204130005372</v>
+        <v>0.01847113674393851</v>
       </c>
       <c r="P11">
-        <v>0.2378204130005372</v>
+        <v>0.01847113674393851</v>
       </c>
       <c r="Q11">
-        <v>3404.96376092025</v>
+        <v>272.8863969370201</v>
       </c>
       <c r="R11">
-        <v>3404.96376092025</v>
+        <v>2455.977572433181</v>
       </c>
       <c r="S11">
-        <v>0.2173245603651529</v>
+        <v>0.01673476641207992</v>
       </c>
       <c r="T11">
-        <v>0.2173245603651529</v>
+        <v>0.01673476641207992</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.18218449618</v>
+        <v>287.769348</v>
       </c>
       <c r="H12">
-        <v>1.18218449618</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I12">
-        <v>0.003760112371984875</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="J12">
-        <v>0.003760112371984875</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.863011893125502</v>
+        <v>0.007966666666666667</v>
       </c>
       <c r="N12">
-        <v>0.863011893125502</v>
+        <v>0.0239</v>
       </c>
       <c r="O12">
-        <v>0.01731799188350419</v>
+        <v>0.0001551789880222403</v>
       </c>
       <c r="P12">
-        <v>0.01731799188350419</v>
+        <v>0.0001551789880222403</v>
       </c>
       <c r="Q12">
-        <v>1.02023928007192</v>
+        <v>2.2925624724</v>
       </c>
       <c r="R12">
-        <v>1.02023928007192</v>
+        <v>20.6330622516</v>
       </c>
       <c r="S12">
-        <v>6.511759553909777E-05</v>
+        <v>0.0001405914618366589</v>
       </c>
       <c r="T12">
-        <v>6.511759553909777E-05</v>
+        <v>0.0001405914618366589</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.18218449618</v>
+        <v>287.769348</v>
       </c>
       <c r="H13">
-        <v>1.18218449618</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I13">
-        <v>0.003760112371984875</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="J13">
-        <v>0.003760112371984875</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.9671138830349</v>
+        <v>13.04550333333333</v>
       </c>
       <c r="N13">
-        <v>35.9671138830349</v>
+        <v>39.13651</v>
       </c>
       <c r="O13">
-        <v>0.721749249646654</v>
+        <v>0.2541072810260372</v>
       </c>
       <c r="P13">
-        <v>0.721749249646654</v>
+        <v>0.2541072810260372</v>
       </c>
       <c r="Q13">
-        <v>42.5197644048643</v>
+        <v>3754.095988565161</v>
       </c>
       <c r="R13">
-        <v>42.5197644048643</v>
+        <v>33786.86389708645</v>
       </c>
       <c r="S13">
-        <v>0.002713858283067184</v>
+        <v>0.2302200482043942</v>
       </c>
       <c r="T13">
-        <v>0.002713858283067184</v>
+        <v>0.2302200482043942</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.18218449618</v>
+        <v>1.780470666666667</v>
       </c>
       <c r="H14">
-        <v>1.18218449618</v>
+        <v>5.341412</v>
       </c>
       <c r="I14">
-        <v>0.003760112371984875</v>
+        <v>0.005605525357730839</v>
       </c>
       <c r="J14">
-        <v>0.003760112371984875</v>
+        <v>0.00560552535773084</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.251614250208193</v>
+        <v>0.9372593333333333</v>
       </c>
       <c r="N14">
-        <v>0.251614250208193</v>
+        <v>2.811778</v>
       </c>
       <c r="O14">
-        <v>0.005049123398634096</v>
+        <v>0.01825643784866941</v>
       </c>
       <c r="P14">
-        <v>0.005049123398634096</v>
+        <v>0.01825643784866941</v>
       </c>
       <c r="Q14">
-        <v>0.2974544656140811</v>
+        <v>1.668762750059556</v>
       </c>
       <c r="R14">
-        <v>0.2974544656140811</v>
+        <v>15.018864750536</v>
       </c>
       <c r="S14">
-        <v>1.898527135888238E-05</v>
+        <v>0.0001023369253025534</v>
       </c>
       <c r="T14">
-        <v>1.898527135888238E-05</v>
+        <v>0.0001023369253025534</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.18218449618</v>
+        <v>1.780470666666667</v>
       </c>
       <c r="H15">
-        <v>1.18218449618</v>
+        <v>5.341412</v>
       </c>
       <c r="I15">
-        <v>0.003760112371984875</v>
+        <v>0.005605525357730839</v>
       </c>
       <c r="J15">
-        <v>0.003760112371984875</v>
+        <v>0.00560552535773084</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.900149138538661</v>
+        <v>36.036964</v>
       </c>
       <c r="N15">
-        <v>0.900149138538661</v>
+        <v>108.110892</v>
       </c>
       <c r="O15">
-        <v>0.01806322207067065</v>
+        <v>0.7019472307423313</v>
       </c>
       <c r="P15">
-        <v>0.01806322207067065</v>
+        <v>0.7019472307423313</v>
       </c>
       <c r="Q15">
-        <v>1.064142355830188</v>
+        <v>64.16275731772268</v>
       </c>
       <c r="R15">
-        <v>1.064142355830188</v>
+        <v>577.464815859504</v>
       </c>
       <c r="S15">
-        <v>6.791974478583896E-05</v>
+        <v>0.003934783001715078</v>
       </c>
       <c r="T15">
-        <v>6.791974478583896E-05</v>
+        <v>0.003934783001715079</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.18218449618</v>
+        <v>1.780470666666667</v>
       </c>
       <c r="H16">
-        <v>1.18218449618</v>
+        <v>5.341412</v>
       </c>
       <c r="I16">
-        <v>0.003760112371984875</v>
+        <v>0.005605525357730839</v>
       </c>
       <c r="J16">
-        <v>0.003760112371984875</v>
+        <v>0.00560552535773084</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.8513651136989</v>
+        <v>0.3625906666666667</v>
       </c>
       <c r="N16">
-        <v>11.8513651136989</v>
+        <v>1.087772</v>
       </c>
       <c r="O16">
-        <v>0.2378204130005372</v>
+        <v>0.007062734651001189</v>
       </c>
       <c r="P16">
-        <v>0.2378204130005372</v>
+        <v>0.007062734651001189</v>
       </c>
       <c r="Q16">
-        <v>14.01050009598336</v>
+        <v>0.6455820460071111</v>
       </c>
       <c r="R16">
-        <v>14.01050009598336</v>
+        <v>5.810238414064</v>
       </c>
       <c r="S16">
-        <v>0.0008942314772338725</v>
+        <v>3.959033818111143E-05</v>
       </c>
       <c r="T16">
-        <v>0.0008942314772338725</v>
+        <v>3.959033818111144E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.9563525368706</v>
+        <v>1.780470666666667</v>
       </c>
       <c r="H17">
-        <v>1.9563525368706</v>
+        <v>5.341412</v>
       </c>
       <c r="I17">
-        <v>0.00622246815249309</v>
+        <v>0.005605525357730839</v>
       </c>
       <c r="J17">
-        <v>0.00622246815249309</v>
+        <v>0.00560552535773084</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.863011893125502</v>
+        <v>0.9482816666666668</v>
       </c>
       <c r="N17">
-        <v>0.863011893125502</v>
+        <v>2.844845</v>
       </c>
       <c r="O17">
-        <v>0.01731799188350419</v>
+        <v>0.01847113674393851</v>
       </c>
       <c r="P17">
-        <v>0.01731799188350419</v>
+        <v>0.01847113674393851</v>
       </c>
       <c r="Q17">
-        <v>1.688355506465575</v>
+        <v>1.688387691237778</v>
       </c>
       <c r="R17">
-        <v>1.688355506465575</v>
+        <v>15.19548922114</v>
       </c>
       <c r="S17">
-        <v>0.0001077606529602387</v>
+        <v>0.0001035404254042611</v>
       </c>
       <c r="T17">
-        <v>0.0001077606529602387</v>
+        <v>0.0001035404254042612</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.9563525368706</v>
+        <v>1.780470666666667</v>
       </c>
       <c r="H18">
-        <v>1.9563525368706</v>
+        <v>5.341412</v>
       </c>
       <c r="I18">
-        <v>0.00622246815249309</v>
+        <v>0.005605525357730839</v>
       </c>
       <c r="J18">
-        <v>0.00622246815249309</v>
+        <v>0.00560552535773084</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>35.9671138830349</v>
+        <v>0.007966666666666667</v>
       </c>
       <c r="N18">
-        <v>35.9671138830349</v>
+        <v>0.0239</v>
       </c>
       <c r="O18">
-        <v>0.721749249646654</v>
+        <v>0.0001551789880222403</v>
       </c>
       <c r="P18">
-        <v>0.721749249646654</v>
+        <v>0.0001551789880222403</v>
       </c>
       <c r="Q18">
-        <v>70.36435448898911</v>
+        <v>0.01418441631111111</v>
       </c>
       <c r="R18">
-        <v>70.36435448898911</v>
+        <v>0.1276597468</v>
       </c>
       <c r="S18">
-        <v>0.004491061720012089</v>
+        <v>8.698597523456783E-07</v>
       </c>
       <c r="T18">
-        <v>0.004491061720012089</v>
+        <v>8.698597523456785E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.9563525368706</v>
+        <v>1.780470666666667</v>
       </c>
       <c r="H19">
-        <v>1.9563525368706</v>
+        <v>5.341412</v>
       </c>
       <c r="I19">
-        <v>0.00622246815249309</v>
+        <v>0.005605525357730839</v>
       </c>
       <c r="J19">
-        <v>0.00622246815249309</v>
+        <v>0.00560552535773084</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.251614250208193</v>
+        <v>13.04550333333333</v>
       </c>
       <c r="N19">
-        <v>0.251614250208193</v>
+        <v>39.13651</v>
       </c>
       <c r="O19">
-        <v>0.005049123398634096</v>
+        <v>0.2541072810260372</v>
       </c>
       <c r="P19">
-        <v>0.005049123398634096</v>
+        <v>0.2541072810260372</v>
       </c>
       <c r="Q19">
-        <v>0.4922461767075923</v>
+        <v>23.22713601690223</v>
       </c>
       <c r="R19">
-        <v>0.4922461767075923</v>
+        <v>209.04422415212</v>
       </c>
       <c r="S19">
-        <v>3.141800954600834E-05</v>
+        <v>0.001424404807375488</v>
       </c>
       <c r="T19">
-        <v>3.141800954600834E-05</v>
+        <v>0.001424404807375488</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.9563525368706</v>
+        <v>2.098855666666667</v>
       </c>
       <c r="H20">
-        <v>1.9563525368706</v>
+        <v>6.296567</v>
       </c>
       <c r="I20">
-        <v>0.00622246815249309</v>
+        <v>0.006607909291616374</v>
       </c>
       <c r="J20">
-        <v>0.00622246815249309</v>
+        <v>0.006607909291616373</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.900149138538661</v>
+        <v>0.9372593333333333</v>
       </c>
       <c r="N20">
-        <v>0.900149138538661</v>
+        <v>2.811778</v>
       </c>
       <c r="O20">
-        <v>0.01806322207067065</v>
+        <v>0.01825643784866941</v>
       </c>
       <c r="P20">
-        <v>0.01806322207067065</v>
+        <v>0.01825643784866941</v>
       </c>
       <c r="Q20">
-        <v>1.761009050741995</v>
+        <v>1.967172062902889</v>
       </c>
       <c r="R20">
-        <v>1.761009050741995</v>
+        <v>17.704548566126</v>
       </c>
       <c r="S20">
-        <v>0.0001123978240661584</v>
+        <v>0.0001206368852920394</v>
       </c>
       <c r="T20">
-        <v>0.0001123978240661584</v>
+        <v>0.0001206368852920394</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.9563525368706</v>
+        <v>2.098855666666667</v>
       </c>
       <c r="H21">
-        <v>1.9563525368706</v>
+        <v>6.296567</v>
       </c>
       <c r="I21">
-        <v>0.00622246815249309</v>
+        <v>0.006607909291616374</v>
       </c>
       <c r="J21">
-        <v>0.00622246815249309</v>
+        <v>0.006607909291616373</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>11.8513651136989</v>
+        <v>36.036964</v>
       </c>
       <c r="N21">
-        <v>11.8513651136989</v>
+        <v>108.110892</v>
       </c>
       <c r="O21">
-        <v>0.2378204130005372</v>
+        <v>0.7019472307423313</v>
       </c>
       <c r="P21">
-        <v>0.2378204130005372</v>
+        <v>0.7019472307423313</v>
       </c>
       <c r="Q21">
-        <v>23.18544820556457</v>
+        <v>75.63638610086268</v>
       </c>
       <c r="R21">
-        <v>23.18544820556457</v>
+        <v>680.727474907764</v>
       </c>
       <c r="S21">
-        <v>0.001479829945908596</v>
+        <v>0.004638403628246634</v>
       </c>
       <c r="T21">
-        <v>0.001479829945908596</v>
+        <v>0.004638403628246634</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>23.1227049095048</v>
+        <v>2.098855666666667</v>
       </c>
       <c r="H22">
-        <v>23.1227049095048</v>
+        <v>6.296567</v>
       </c>
       <c r="I22">
-        <v>0.07354517766467669</v>
+        <v>0.006607909291616374</v>
       </c>
       <c r="J22">
-        <v>0.07354517766467669</v>
+        <v>0.006607909291616373</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.863011893125502</v>
+        <v>0.3625906666666667</v>
       </c>
       <c r="N22">
-        <v>0.863011893125502</v>
+        <v>1.087772</v>
       </c>
       <c r="O22">
-        <v>0.01731799188350419</v>
+        <v>0.007062734651001189</v>
       </c>
       <c r="P22">
-        <v>0.01731799188350419</v>
+        <v>0.007062734651001189</v>
       </c>
       <c r="Q22">
-        <v>19.95516933813408</v>
+        <v>0.7610254754137777</v>
       </c>
       <c r="R22">
-        <v>19.95516933813408</v>
+        <v>6.849229278724</v>
       </c>
       <c r="S22">
-        <v>0.001273654789867745</v>
+        <v>4.666990992457168E-05</v>
       </c>
       <c r="T22">
-        <v>0.001273654789867745</v>
+        <v>4.666990992457167E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>23.1227049095048</v>
+        <v>2.098855666666667</v>
       </c>
       <c r="H23">
-        <v>23.1227049095048</v>
+        <v>6.296567</v>
       </c>
       <c r="I23">
-        <v>0.07354517766467669</v>
+        <v>0.006607909291616374</v>
       </c>
       <c r="J23">
-        <v>0.07354517766467669</v>
+        <v>0.006607909291616373</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>35.9671138830349</v>
+        <v>0.9482816666666668</v>
       </c>
       <c r="N23">
-        <v>35.9671138830349</v>
+        <v>2.844845</v>
       </c>
       <c r="O23">
-        <v>0.721749249646654</v>
+        <v>0.01847113674393851</v>
       </c>
       <c r="P23">
-        <v>0.721749249646654</v>
+        <v>0.01847113674393851</v>
       </c>
       <c r="Q23">
-        <v>831.6569607639693</v>
+        <v>1.990306349679445</v>
       </c>
       <c r="R23">
-        <v>831.6569607639693</v>
+        <v>17.912757147115</v>
       </c>
       <c r="S23">
-        <v>0.05308117679461026</v>
+        <v>0.0001220555961169879</v>
       </c>
       <c r="T23">
-        <v>0.05308117679461026</v>
+        <v>0.0001220555961169879</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>23.1227049095048</v>
+        <v>2.098855666666667</v>
       </c>
       <c r="H24">
-        <v>23.1227049095048</v>
+        <v>6.296567</v>
       </c>
       <c r="I24">
-        <v>0.07354517766467669</v>
+        <v>0.006607909291616374</v>
       </c>
       <c r="J24">
-        <v>0.07354517766467669</v>
+        <v>0.006607909291616373</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.251614250208193</v>
+        <v>0.007966666666666667</v>
       </c>
       <c r="N24">
-        <v>0.251614250208193</v>
+        <v>0.0239</v>
       </c>
       <c r="O24">
-        <v>0.005049123398634096</v>
+        <v>0.0001551789880222403</v>
       </c>
       <c r="P24">
-        <v>0.005049123398634096</v>
+        <v>0.0001551789880222403</v>
       </c>
       <c r="Q24">
-        <v>5.818002058590354</v>
+        <v>0.01672088347777778</v>
       </c>
       <c r="R24">
-        <v>5.818002058590354</v>
+        <v>0.1504879513</v>
       </c>
       <c r="S24">
-        <v>0.0003713386774034208</v>
+        <v>1.025408676815788E-06</v>
       </c>
       <c r="T24">
-        <v>0.0003713386774034208</v>
+        <v>1.025408676815788E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>23.1227049095048</v>
+        <v>2.098855666666667</v>
       </c>
       <c r="H25">
-        <v>23.1227049095048</v>
+        <v>6.296567</v>
       </c>
       <c r="I25">
-        <v>0.07354517766467669</v>
+        <v>0.006607909291616374</v>
       </c>
       <c r="J25">
-        <v>0.07354517766467669</v>
+        <v>0.006607909291616373</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.900149138538661</v>
+        <v>13.04550333333333</v>
       </c>
       <c r="N25">
-        <v>0.900149138538661</v>
+        <v>39.13651</v>
       </c>
       <c r="O25">
-        <v>0.01806322207067065</v>
+        <v>0.2541072810260372</v>
       </c>
       <c r="P25">
-        <v>0.01806322207067065</v>
+        <v>0.2541072810260372</v>
       </c>
       <c r="Q25">
-        <v>20.81388290497441</v>
+        <v>27.38062859568556</v>
       </c>
       <c r="R25">
-        <v>20.81388290497441</v>
+        <v>246.42565736117</v>
       </c>
       <c r="S25">
-        <v>0.001328462876383982</v>
+        <v>0.001679117863359324</v>
       </c>
       <c r="T25">
-        <v>0.001328462876383982</v>
+        <v>0.001679117863359324</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2013,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.212347</v>
+      </c>
+      <c r="H26">
+        <v>0.637041</v>
+      </c>
+      <c r="I26">
+        <v>0.0006685403558860861</v>
+      </c>
+      <c r="J26">
+        <v>0.0006685403558860862</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.9372593333333333</v>
+      </c>
+      <c r="N26">
+        <v>2.811778</v>
+      </c>
+      <c r="O26">
+        <v>0.01825643784866941</v>
+      </c>
+      <c r="P26">
+        <v>0.01825643784866941</v>
+      </c>
+      <c r="Q26">
+        <v>0.1990242076553333</v>
+      </c>
+      <c r="R26">
+        <v>1.791217868898</v>
+      </c>
+      <c r="S26">
+        <v>1.220516545656166E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.220516545656166E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.212347</v>
+      </c>
+      <c r="H27">
+        <v>0.637041</v>
+      </c>
+      <c r="I27">
+        <v>0.0006685403558860861</v>
+      </c>
+      <c r="J27">
+        <v>0.0006685403558860862</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>36.036964</v>
+      </c>
+      <c r="N27">
+        <v>108.110892</v>
+      </c>
+      <c r="O27">
+        <v>0.7019472307423313</v>
+      </c>
+      <c r="P27">
+        <v>0.7019472307423313</v>
+      </c>
+      <c r="Q27">
+        <v>7.652341194508001</v>
+      </c>
+      <c r="R27">
+        <v>68.871070750572</v>
+      </c>
+      <c r="S27">
+        <v>0.0004692800514537308</v>
+      </c>
+      <c r="T27">
+        <v>0.0004692800514537309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.212347</v>
+      </c>
+      <c r="H28">
+        <v>0.637041</v>
+      </c>
+      <c r="I28">
+        <v>0.0006685403558860861</v>
+      </c>
+      <c r="J28">
+        <v>0.0006685403558860862</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.3625906666666667</v>
+      </c>
+      <c r="N28">
+        <v>1.087772</v>
+      </c>
+      <c r="O28">
+        <v>0.007062734651001189</v>
+      </c>
+      <c r="P28">
+        <v>0.007062734651001189</v>
+      </c>
+      <c r="Q28">
+        <v>0.07699504029466667</v>
+      </c>
+      <c r="R28">
+        <v>0.692955362652</v>
+      </c>
+      <c r="S28">
+        <v>4.721723137109327E-06</v>
+      </c>
+      <c r="T28">
+        <v>4.721723137109328E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.212347</v>
+      </c>
+      <c r="H29">
+        <v>0.637041</v>
+      </c>
+      <c r="I29">
+        <v>0.0006685403558860861</v>
+      </c>
+      <c r="J29">
+        <v>0.0006685403558860862</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.9482816666666668</v>
+      </c>
+      <c r="N29">
+        <v>2.844845</v>
+      </c>
+      <c r="O29">
+        <v>0.01847113674393851</v>
+      </c>
+      <c r="P29">
+        <v>0.01847113674393851</v>
+      </c>
+      <c r="Q29">
+        <v>0.2013647670716667</v>
+      </c>
+      <c r="R29">
+        <v>1.812282903645</v>
+      </c>
+      <c r="S29">
+        <v>1.234870033241321E-05</v>
+      </c>
+      <c r="T29">
+        <v>1.234870033241322E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.212347</v>
+      </c>
+      <c r="H30">
+        <v>0.637041</v>
+      </c>
+      <c r="I30">
+        <v>0.0006685403558860861</v>
+      </c>
+      <c r="J30">
+        <v>0.0006685403558860862</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.007966666666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.0239</v>
+      </c>
+      <c r="O30">
+        <v>0.0001551789880222403</v>
+      </c>
+      <c r="P30">
+        <v>0.0001551789880222403</v>
+      </c>
+      <c r="Q30">
+        <v>0.001691697766666667</v>
+      </c>
+      <c r="R30">
+        <v>0.0152252799</v>
+      </c>
+      <c r="S30">
+        <v>1.037434158784313E-07</v>
+      </c>
+      <c r="T30">
+        <v>1.037434158784313E-07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.212347</v>
+      </c>
+      <c r="H31">
+        <v>0.637041</v>
+      </c>
+      <c r="I31">
+        <v>0.0006685403558860861</v>
+      </c>
+      <c r="J31">
+        <v>0.0006685403558860862</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>13.04550333333333</v>
+      </c>
+      <c r="N31">
+        <v>39.13651</v>
+      </c>
+      <c r="O31">
+        <v>0.2541072810260372</v>
+      </c>
+      <c r="P31">
+        <v>0.2541072810260372</v>
+      </c>
+      <c r="Q31">
+        <v>2.770173496323333</v>
+      </c>
+      <c r="R31">
+        <v>24.93156146691</v>
+      </c>
+      <c r="S31">
+        <v>0.0001698809720903926</v>
+      </c>
+      <c r="T31">
+        <v>0.0001698809720903926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>23.47212533333333</v>
+      </c>
+      <c r="H32">
+        <v>70.416376</v>
+      </c>
+      <c r="I32">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="J32">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.9372593333333333</v>
+      </c>
+      <c r="N32">
+        <v>2.811778</v>
+      </c>
+      <c r="O32">
+        <v>0.01825643784866941</v>
+      </c>
+      <c r="P32">
+        <v>0.01825643784866941</v>
+      </c>
+      <c r="Q32">
+        <v>21.99946854183645</v>
+      </c>
+      <c r="R32">
+        <v>197.995216876528</v>
+      </c>
+      <c r="S32">
+        <v>0.001349118062937013</v>
+      </c>
+      <c r="T32">
+        <v>0.001349118062937013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>23.47212533333333</v>
+      </c>
+      <c r="H33">
+        <v>70.416376</v>
+      </c>
+      <c r="I33">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="J33">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>36.036964</v>
+      </c>
+      <c r="N33">
+        <v>108.110892</v>
+      </c>
+      <c r="O33">
+        <v>0.7019472307423313</v>
+      </c>
+      <c r="P33">
+        <v>0.7019472307423313</v>
+      </c>
+      <c r="Q33">
+        <v>845.8641356408215</v>
+      </c>
+      <c r="R33">
+        <v>7612.777220767392</v>
+      </c>
+      <c r="S33">
+        <v>0.05187264328742618</v>
+      </c>
+      <c r="T33">
+        <v>0.05187264328742618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>23.47212533333333</v>
+      </c>
+      <c r="H34">
+        <v>70.416376</v>
+      </c>
+      <c r="I34">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="J34">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.3625906666666667</v>
+      </c>
+      <c r="N34">
+        <v>1.087772</v>
+      </c>
+      <c r="O34">
+        <v>0.007062734651001189</v>
+      </c>
+      <c r="P34">
+        <v>0.007062734651001189</v>
+      </c>
+      <c r="Q34">
+        <v>8.510773572696889</v>
+      </c>
+      <c r="R34">
+        <v>76.59696215427199</v>
+      </c>
+      <c r="S34">
+        <v>0.0005219234425893937</v>
+      </c>
+      <c r="T34">
+        <v>0.0005219234425893937</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>23.47212533333333</v>
+      </c>
+      <c r="H35">
+        <v>70.416376</v>
+      </c>
+      <c r="I35">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="J35">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.9482816666666668</v>
+      </c>
+      <c r="N35">
+        <v>2.844845</v>
+      </c>
+      <c r="O35">
+        <v>0.01847113674393851</v>
+      </c>
+      <c r="P35">
+        <v>0.01847113674393851</v>
+      </c>
+      <c r="Q35">
+        <v>22.25818613130223</v>
+      </c>
+      <c r="R35">
+        <v>200.32367518172</v>
+      </c>
+      <c r="S35">
+        <v>0.001364983926809317</v>
+      </c>
+      <c r="T35">
+        <v>0.001364983926809317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>23.1227049095048</v>
-      </c>
-      <c r="H26">
-        <v>23.1227049095048</v>
-      </c>
-      <c r="I26">
-        <v>0.07354517766467669</v>
-      </c>
-      <c r="J26">
-        <v>0.07354517766467669</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>11.8513651136989</v>
-      </c>
-      <c r="N26">
-        <v>11.8513651136989</v>
-      </c>
-      <c r="O26">
-        <v>0.2378204130005372</v>
-      </c>
-      <c r="P26">
-        <v>0.2378204130005372</v>
-      </c>
-      <c r="Q26">
-        <v>274.0356182988595</v>
-      </c>
-      <c r="R26">
-        <v>274.0356182988595</v>
-      </c>
-      <c r="S26">
-        <v>0.01749054452641129</v>
-      </c>
-      <c r="T26">
-        <v>0.01749054452641129</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>23.47212533333333</v>
+      </c>
+      <c r="H36">
+        <v>70.416376</v>
+      </c>
+      <c r="I36">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="J36">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.007966666666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.0239</v>
+      </c>
+      <c r="O36">
+        <v>0.0001551789880222403</v>
+      </c>
+      <c r="P36">
+        <v>0.0001551789880222403</v>
+      </c>
+      <c r="Q36">
+        <v>0.1869945984888889</v>
+      </c>
+      <c r="R36">
+        <v>1.6829513864</v>
+      </c>
+      <c r="S36">
+        <v>1.146744931648039E-05</v>
+      </c>
+      <c r="T36">
+        <v>1.146744931648039E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>23.47212533333333</v>
+      </c>
+      <c r="H37">
+        <v>70.416376</v>
+      </c>
+      <c r="I37">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="J37">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>13.04550333333333</v>
+      </c>
+      <c r="N37">
+        <v>39.13651</v>
+      </c>
+      <c r="O37">
+        <v>0.2541072810260372</v>
+      </c>
+      <c r="P37">
+        <v>0.2541072810260372</v>
+      </c>
+      <c r="Q37">
+        <v>306.2056892764178</v>
+      </c>
+      <c r="R37">
+        <v>2755.85120348776</v>
+      </c>
+      <c r="S37">
+        <v>0.0187780730062313</v>
+      </c>
+      <c r="T37">
+        <v>0.0187780730062313</v>
       </c>
     </row>
   </sheetData>
